--- a/Originales/Tasa_de_motorizacion_general.xlsx
+++ b/Originales/Tasa_de_motorizacion_general.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristianchaparro/Documents/curso_data_science/Tesis/Originales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Dropbox\Tesis Final\Tesis\Originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F3B23-300E-444A-B5B0-900145148156}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F13931-E5F1-48A7-A070-66F982230C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasa_de_motorizacion_general" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -780,20 +788,20 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -810,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2000</v>
       </c>
@@ -826,7 +834,7 @@
       </c>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2001</v>
       </c>
@@ -845,7 +853,7 @@
         <v>3.0831977238068964E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2002</v>
       </c>
@@ -864,7 +872,7 @@
         <v>3.8378864072994734E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2003</v>
       </c>
@@ -883,7 +891,7 @@
         <v>3.9159535306210191E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2004</v>
       </c>
@@ -902,7 +910,7 @@
         <v>4.4824048472356992E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2005</v>
       </c>
@@ -921,7 +929,7 @@
         <v>5.9030224038326029E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2006</v>
       </c>
@@ -940,7 +948,7 @@
         <v>7.630867739387126E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2007</v>
       </c>
@@ -959,7 +967,7 @@
         <v>7.7824949876961869E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2008</v>
       </c>
@@ -978,7 +986,7 @@
         <v>6.6546240443856597E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2009</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>6.5842003387369896E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2010</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>9.7414942822280803E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2011</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>0.12428964621652216</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2012</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>0.12123364858545416</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2013</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>0.103357347488086</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2014</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>8.7209962839714938E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2015</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>7.7923163588485833E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2016</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>6.0704711176287063E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2017</v>
       </c>
@@ -1150,27 +1158,27 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
     </row>
   </sheetData>
